--- a/汎用.xlsx
+++ b/汎用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keite\OneDrive\デスクトップ\ノート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EC8515-E4A8-4DA2-9B5F-DD5D1DD98DF0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC666B1D-3AE0-4A9A-A19C-8CFBBE4A2756}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8952" xr2:uid="{23A547DA-F9B8-4989-9B8D-BFB06737F436}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1"/>
@@ -313,6 +313,63 @@
   </si>
   <si>
     <t>https://webmasters.stackexchange.com/questions/31212/difference-between-the-accept-and-content-type-http-headers</t>
+  </si>
+  <si>
+    <t>サーブレット・コンテナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーブレットを動作させるためのソフト</t>
+    <rPh sb="7" eb="9">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーブレット＝java servlet＝サーバーサイドで動的にWebページを生成するJavaプログラムのこと</t>
+    <rPh sb="28" eb="30">
+      <t>ドウテキ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/what-servlet-container</t>
+  </si>
+  <si>
+    <t>What is a Servlet Container?</t>
+  </si>
+  <si>
+    <t>サーブレット・コンテナの例</t>
+    <rPh sb="12" eb="13">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tomcat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jetty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Undertow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TestNG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>javaのテスティングフレームワーク。junitと同じ</t>
+    <rPh sb="25" eb="26">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -737,7 +794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FC344E-1F18-48CC-BC37-259F41891517}">
-  <dimension ref="A1:AX71"/>
+  <dimension ref="A1:AX86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1080,7 +1137,7 @@
       <c r="B43" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="5"/>
@@ -2029,12 +2086,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="2" t="s">
         <v>59</v>
       </c>
@@ -2042,19 +2099,77 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="1" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="1"/>
+    </row>
+    <row r="74" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2062,8 +2177,9 @@
   <hyperlinks>
     <hyperlink ref="B19" r:id="rId1" xr:uid="{FAD23E32-ED95-485E-89B5-A312B57FE70B}"/>
     <hyperlink ref="B71" r:id="rId2" xr:uid="{75908F29-0D20-4CCE-8F33-9AA494F2C68A}"/>
+    <hyperlink ref="B78" r:id="rId3" xr:uid="{7A8F0D7E-46E1-4E7F-9B7F-7FD7DFFCFA0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/汎用.xlsx
+++ b/汎用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keite\Desktop\ノート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31B7069-8A79-4A13-8374-3831C663B2DE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B01015F-990F-43E0-80D1-ABE18C15ECFE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8952" xr2:uid="{23A547DA-F9B8-4989-9B8D-BFB06737F436}"/>
   </bookViews>
@@ -17,6 +17,8 @@
     <sheet name="http" sheetId="13" r:id="rId2"/>
     <sheet name="WebAPサーバ" sheetId="14" r:id="rId3"/>
     <sheet name="文字コード" sheetId="15" r:id="rId4"/>
+    <sheet name="linux" sheetId="16" r:id="rId5"/>
+    <sheet name="画像" sheetId="17" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="134">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1"/>
@@ -732,6 +734,125 @@
     </rPh>
     <rPh sb="36" eb="37">
       <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>utf8mb4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>utf8に加え4バイトの文字や絵文字が使える</t>
+    <rPh sb="5" eb="6">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>エモジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シンボリックリンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>windowsでいうショートカット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハードリンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルの実体</t>
+    <rPh sb="5" eb="7">
+      <t>ジッタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inode番号</t>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>linuxでは全てのファイル、ディレクトリに一意の番号が割り当てられてる</t>
+    <rPh sb="7" eb="8">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イチイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>px = 画素</t>
+    <rPh sb="5" eb="7">
+      <t>ガソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解像度</t>
+    <rPh sb="0" eb="3">
+      <t>カイゾウド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1インチ当たりの画素数</t>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ガソスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dpi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ppi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10dpi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1インチ（2.54cm）あたり縦横10画素ある</t>
+    <rPh sb="15" eb="17">
+      <t>タテヨコ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガソ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2851,7 +2972,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F161FDCF-B8B4-4EF4-AC50-883D45C8C3D4}">
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3174,14 +3295,24 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3192,4 +3323,108 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7352ADE-C0AE-41A5-BDE6-F080093461F2}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8839E03-B81B-42C3-A66D-36E7323CB5AF}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>